--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Oprd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Oprd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,27 +564,27 @@
         <v>0.064979</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7290280598220596</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.7290280598220598</v>
       </c>
       <c r="Q2">
-        <v>4.233065380610332</v>
+        <v>4.278723553629888</v>
       </c>
       <c r="R2">
-        <v>38.09758842549299</v>
+        <v>38.50851198266899</v>
       </c>
       <c r="S2">
-        <v>0.3095741734129938</v>
+        <v>0.2470460128620744</v>
       </c>
       <c r="T2">
-        <v>0.3095741734129938</v>
+        <v>0.2470460128620744</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>79.82725266666667</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>239.481758</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.1264482133280045</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.1264482133280045</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,33 +620,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02165966666666666</v>
+        <v>0.008050666666666666</v>
       </c>
       <c r="N3">
-        <v>0.064979</v>
+        <v>0.024152</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.2709719401779404</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.2709719401779404</v>
       </c>
       <c r="Q3">
-        <v>1.729031683675778</v>
+        <v>1.590355826763555</v>
       </c>
       <c r="R3">
-        <v>15.561285153082</v>
+        <v>14.313202440872</v>
       </c>
       <c r="S3">
-        <v>0.1264482133280045</v>
+        <v>0.09182436329652384</v>
       </c>
       <c r="T3">
-        <v>0.1264482133280045</v>
+        <v>0.09182436329652383</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.5116576666667</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H4">
-        <v>487.534973</v>
+        <v>239.481758</v>
       </c>
       <c r="I4">
-        <v>0.2574222219914007</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J4">
-        <v>0.2574222219914007</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,27 +688,27 @@
         <v>0.064979</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.7290280598220596</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7290280598220598</v>
       </c>
       <c r="Q4">
-        <v>3.519948334507444</v>
+        <v>1.729031683675778</v>
       </c>
       <c r="R4">
-        <v>31.679535010567</v>
+        <v>15.561285153082</v>
       </c>
       <c r="S4">
-        <v>0.2574222219914007</v>
+        <v>0.09983126467750505</v>
       </c>
       <c r="T4">
-        <v>0.2574222219914007</v>
+        <v>0.09983126467750505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.73857866666668</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H5">
-        <v>101.215736</v>
+        <v>239.481758</v>
       </c>
       <c r="I5">
-        <v>0.05344268843173845</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J5">
-        <v>0.05344268843173845</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02165966666666666</v>
+        <v>0.008050666666666666</v>
       </c>
       <c r="N5">
-        <v>0.064979</v>
+        <v>0.024152</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.2709719401779404</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.2709719401779404</v>
       </c>
       <c r="Q5">
-        <v>0.7307663677271112</v>
+        <v>0.6426626021351111</v>
       </c>
       <c r="R5">
-        <v>6.576897309544001</v>
+        <v>5.783963419216</v>
       </c>
       <c r="S5">
-        <v>0.05344268843173845</v>
+        <v>0.03710621438451042</v>
       </c>
       <c r="T5">
-        <v>0.05344268843173845</v>
+        <v>0.03710621438451041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>159.7910413333333</v>
+        <v>148.824417</v>
       </c>
       <c r="H6">
-        <v>479.373124</v>
+        <v>446.473251</v>
       </c>
       <c r="I6">
-        <v>0.2531127028358625</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J6">
-        <v>0.2531127028358626</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +812,332 @@
         <v>0.064979</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.7290280598220596</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.7290280598220598</v>
       </c>
       <c r="Q6">
-        <v>3.461020691599555</v>
+        <v>3.223487264081</v>
       </c>
       <c r="R6">
-        <v>31.149186224396</v>
+        <v>29.011385376729</v>
       </c>
       <c r="S6">
-        <v>0.2531127028358625</v>
+        <v>0.1861185155155206</v>
       </c>
       <c r="T6">
-        <v>0.2531127028358626</v>
+        <v>0.1861185155155206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>148.824417</v>
+      </c>
+      <c r="H7">
+        <v>446.473251</v>
+      </c>
+      <c r="I7">
+        <v>0.2552967790580629</v>
+      </c>
+      <c r="J7">
+        <v>0.2552967790580629</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.008050666666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.024152</v>
+      </c>
+      <c r="O7">
+        <v>0.2709719401779404</v>
+      </c>
+      <c r="P7">
+        <v>0.2709719401779404</v>
+      </c>
+      <c r="Q7">
+        <v>1.198135773128</v>
+      </c>
+      <c r="R7">
+        <v>10.783221958152</v>
+      </c>
+      <c r="S7">
+        <v>0.06917826354254226</v>
+      </c>
+      <c r="T7">
+        <v>0.06917826354254226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>35.426853</v>
+      </c>
+      <c r="H8">
+        <v>106.280559</v>
+      </c>
+      <c r="I8">
+        <v>0.06077202683121193</v>
+      </c>
+      <c r="J8">
+        <v>0.06077202683121192</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02165966666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.064979</v>
+      </c>
+      <c r="O8">
+        <v>0.7290280598220596</v>
+      </c>
+      <c r="P8">
+        <v>0.7290280598220598</v>
+      </c>
+      <c r="Q8">
+        <v>0.7673338270289999</v>
+      </c>
+      <c r="R8">
+        <v>6.906004443260999</v>
+      </c>
+      <c r="S8">
+        <v>0.04430451281221258</v>
+      </c>
+      <c r="T8">
+        <v>0.04430451281221259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>35.426853</v>
+      </c>
+      <c r="H9">
+        <v>106.280559</v>
+      </c>
+      <c r="I9">
+        <v>0.06077202683121193</v>
+      </c>
+      <c r="J9">
+        <v>0.06077202683121192</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.008050666666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.024152</v>
+      </c>
+      <c r="O9">
+        <v>0.2709719401779404</v>
+      </c>
+      <c r="P9">
+        <v>0.2709719401779404</v>
+      </c>
+      <c r="Q9">
+        <v>0.285209784552</v>
+      </c>
+      <c r="R9">
+        <v>2.566888060968</v>
+      </c>
+      <c r="S9">
+        <v>0.01646751401899934</v>
+      </c>
+      <c r="T9">
+        <v>0.01646751401899934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>121.3248153333333</v>
+      </c>
+      <c r="H10">
+        <v>363.974446</v>
+      </c>
+      <c r="I10">
+        <v>0.2081233388901116</v>
+      </c>
+      <c r="J10">
+        <v>0.2081233388901115</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02165966666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.064979</v>
+      </c>
+      <c r="O10">
+        <v>0.7290280598220596</v>
+      </c>
+      <c r="P10">
+        <v>0.7290280598220598</v>
+      </c>
+      <c r="Q10">
+        <v>2.627855058514889</v>
+      </c>
+      <c r="R10">
+        <v>23.650695526634</v>
+      </c>
+      <c r="S10">
+        <v>0.1517277539547471</v>
+      </c>
+      <c r="T10">
+        <v>0.1517277539547471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>121.3248153333333</v>
+      </c>
+      <c r="H11">
+        <v>363.974446</v>
+      </c>
+      <c r="I11">
+        <v>0.2081233388901116</v>
+      </c>
+      <c r="J11">
+        <v>0.2081233388901115</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.008050666666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.024152</v>
+      </c>
+      <c r="O11">
+        <v>0.2709719401779404</v>
+      </c>
+      <c r="P11">
+        <v>0.2709719401779404</v>
+      </c>
+      <c r="Q11">
+        <v>0.9767456466435555</v>
+      </c>
+      <c r="R11">
+        <v>8.790710819792</v>
+      </c>
+      <c r="S11">
+        <v>0.05639558493536451</v>
+      </c>
+      <c r="T11">
+        <v>0.05639558493536451</v>
       </c>
     </row>
   </sheetData>
